--- a/data/trans_orig/P5704-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5704-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>527296</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>495804</v>
+        <v>495845</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>561109</v>
+        <v>560844</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5110829832692754</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4805595778814202</v>
+        <v>0.4805987170168957</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5438564550584056</v>
+        <v>0.5435997212261678</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>633</v>
@@ -765,19 +765,19 @@
         <v>640305</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>600930</v>
+        <v>604399</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>675428</v>
+        <v>675242</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4868823942482181</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4569413882245861</v>
+        <v>0.4595793746239223</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.513589349179589</v>
+        <v>0.5134478395023772</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1168</v>
@@ -786,19 +786,19 @@
         <v>1167601</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1122445</v>
+        <v>1123014</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1214302</v>
+        <v>1216903</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4975215296847365</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4782802512237818</v>
+        <v>0.4785226318242821</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5174209868493783</v>
+        <v>0.5185295178256932</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>277800</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>249828</v>
+        <v>251257</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>304078</v>
+        <v>307102</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2692580407321798</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2421459770765924</v>
+        <v>0.243531533234756</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2947285844248415</v>
+        <v>0.2976591252097776</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>357</v>
@@ -836,19 +836,19 @@
         <v>365207</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>330803</v>
+        <v>332378</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>399162</v>
+        <v>398678</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2777000213823947</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2515397960132339</v>
+        <v>0.2527369734448261</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3035192045404413</v>
+        <v>0.3031512008191007</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>634</v>
@@ -857,19 +857,19 @@
         <v>643006</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>603048</v>
+        <v>600536</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>685201</v>
+        <v>683485</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2739887325616163</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2569621622662651</v>
+        <v>0.2558919116551731</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.291968251377291</v>
+        <v>0.2912370567602486</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>170500</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>148232</v>
+        <v>148362</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>195855</v>
+        <v>196915</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1652575869413478</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1436739973520665</v>
+        <v>0.1438005667500931</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1898331624303037</v>
+        <v>0.1908607334095812</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>207</v>
@@ -907,19 +907,19 @@
         <v>212491</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>186799</v>
+        <v>185991</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>241086</v>
+        <v>239570</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1615761023156353</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1420405968018726</v>
+        <v>0.1414261018901757</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1833199357108447</v>
+        <v>0.1821665702676218</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>377</v>
@@ -928,19 +928,19 @@
         <v>382991</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>345399</v>
+        <v>349017</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>422422</v>
+        <v>419876</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.163194567614407</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1471766447521466</v>
+        <v>0.148718140386279</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1799963781205327</v>
+        <v>0.1789115678286591</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>47089</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35715</v>
+        <v>34553</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61627</v>
+        <v>61825</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04564133003989424</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03461689584788238</v>
+        <v>0.03349021361837332</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05973221827025438</v>
+        <v>0.0599240243634674</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -978,7 +978,7 @@
         <v>85490</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69023</v>
+        <v>69041</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>105261</v>
@@ -987,10 +987,10 @@
         <v>0.06500561769546956</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05248418792662699</v>
+        <v>0.05249802629276276</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08003923083998481</v>
+        <v>0.08003967083606295</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>131</v>
@@ -999,19 +999,19 @@
         <v>132579</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>112107</v>
+        <v>111544</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>154631</v>
+        <v>155165</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05649263155202868</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04776934188406889</v>
+        <v>0.04752953350580608</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06588930737701551</v>
+        <v>0.06611662340637532</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>9038</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4416</v>
+        <v>3989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18477</v>
+        <v>18455</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00876005901730275</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004280670459874653</v>
+        <v>0.003865924026328889</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01790888663703552</v>
+        <v>0.0178879572731826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1049,19 +1049,19 @@
         <v>11620</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6170</v>
+        <v>6023</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19821</v>
+        <v>20406</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008835864358282321</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004691574616644245</v>
+        <v>0.004579904690515114</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01507182471266091</v>
+        <v>0.01551672693250653</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -1070,19 +1070,19 @@
         <v>20658</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12754</v>
+        <v>12811</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33103</v>
+        <v>32370</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008802538587211568</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005434361166033599</v>
+        <v>0.005458678713996454</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01410518054223101</v>
+        <v>0.01379316965332069</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>1028274</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>987263</v>
+        <v>991402</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1066944</v>
+        <v>1068667</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6078237226919592</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5835813344320532</v>
+        <v>0.5860280944482571</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.630681881489252</v>
+        <v>0.6317003733097988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>952</v>
@@ -1195,19 +1195,19 @@
         <v>964023</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>922586</v>
+        <v>920679</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1001497</v>
+        <v>998168</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6075677349456826</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5814519000242385</v>
+        <v>0.580249969295528</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6311852862221867</v>
+        <v>0.6290871393413532</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1941</v>
@@ -1216,19 +1216,19 @@
         <v>1992298</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1934975</v>
+        <v>1927651</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2051686</v>
+        <v>2045632</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.607699829634619</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5902148793215268</v>
+        <v>0.5879809600411063</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6258148485671288</v>
+        <v>0.6239679613802606</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>463681</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>430130</v>
+        <v>424246</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>500551</v>
+        <v>495809</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2740866038702241</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2542541345874708</v>
+        <v>0.2507764246385485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2958812579004136</v>
+        <v>0.2930778940333363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>408</v>
@@ -1266,19 +1266,19 @@
         <v>415794</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>382294</v>
+        <v>380863</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>452272</v>
+        <v>454251</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.262050826464313</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.240937568911914</v>
+        <v>0.2400354752439614</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2850403824634888</v>
+        <v>0.2862876958226701</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>867</v>
@@ -1287,19 +1287,19 @@
         <v>879475</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>832976</v>
+        <v>829852</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>930154</v>
+        <v>936960</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.268261523248306</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2540780478819299</v>
+        <v>0.2531253615845397</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2837197711935157</v>
+        <v>0.2857958053277674</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>169242</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>146018</v>
+        <v>147101</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>194018</v>
+        <v>196007</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1000408661251</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08631274533247453</v>
+        <v>0.08695321175969373</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1146861132815625</v>
+        <v>0.1158616054864512</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>151</v>
@@ -1337,19 +1337,19 @@
         <v>159881</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>136854</v>
+        <v>137886</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>187542</v>
+        <v>184154</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.100763926088479</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08625115180122121</v>
+        <v>0.08690168704207932</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1181966007350082</v>
+        <v>0.1160615608690783</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>321</v>
@@ -1358,19 +1358,19 @@
         <v>329124</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>292860</v>
+        <v>296552</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>362628</v>
+        <v>363897</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1003908129909415</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0893294136708858</v>
+        <v>0.09045568221970292</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1106103608492423</v>
+        <v>0.1109975522584792</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>29548</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19956</v>
+        <v>19388</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43037</v>
+        <v>42005</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01746611266791116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01179637890355673</v>
+        <v>0.01146019715051669</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02543980156939637</v>
+        <v>0.0248297039047876</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -1408,19 +1408,19 @@
         <v>41999</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30047</v>
+        <v>29440</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57700</v>
+        <v>55913</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02646966319539273</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01893667722265062</v>
+        <v>0.01855461386139834</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03636520457217653</v>
+        <v>0.03523896135817245</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -1429,19 +1429,19 @@
         <v>71547</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56518</v>
+        <v>56521</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91402</v>
+        <v>90598</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02182365484714217</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01723926254421582</v>
+        <v>0.01724016668141049</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02787987301586119</v>
+        <v>0.02763469361552537</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5933</v>
+        <v>5332</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0005826946448055317</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.003506849993197264</v>
+        <v>0.003151647581501621</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1479,19 +1479,19 @@
         <v>4995</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1233</v>
+        <v>1733</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12517</v>
+        <v>13447</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00314784930613254</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0007772128899236386</v>
+        <v>0.001092197185470052</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.007888799053190232</v>
+        <v>0.008474555040086214</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1500,19 +1500,19 @@
         <v>5980</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2051</v>
+        <v>2058</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14747</v>
+        <v>13158</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001824179278991294</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0006256574156233658</v>
+        <v>0.0006277738813211423</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004498317112212153</v>
+        <v>0.004013638769629025</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>336269</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>315303</v>
+        <v>311980</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>362086</v>
+        <v>358887</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6098368507835293</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.571814804755451</v>
+        <v>0.5657878355439461</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6566564973364614</v>
+        <v>0.6508564792422485</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>297</v>
@@ -1625,19 +1625,19 @@
         <v>311658</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>290028</v>
+        <v>289244</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>331631</v>
+        <v>332320</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.654176728594721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6087759984783062</v>
+        <v>0.60712935549128</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6961006041582929</v>
+        <v>0.6975475425164366</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>617</v>
@@ -1646,19 +1646,19 @@
         <v>647927</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>616280</v>
+        <v>616536</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>678202</v>
+        <v>679995</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6303891289519566</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5995989638906446</v>
+        <v>0.5998486220831023</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.659844972493176</v>
+        <v>0.6615896255418473</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>163207</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>142322</v>
+        <v>141921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>187463</v>
+        <v>183811</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2959819480438615</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2581061066317812</v>
+        <v>0.2573798370857533</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3399723769575007</v>
+        <v>0.3333477084183373</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>111</v>
@@ -1696,19 +1696,19 @@
         <v>116640</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>95966</v>
+        <v>99365</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>135414</v>
+        <v>137509</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2448298152844541</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2014344955934202</v>
+        <v>0.2085686132794128</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2842367953491835</v>
+        <v>0.288633905337595</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>269</v>
@@ -1717,19 +1717,19 @@
         <v>279847</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>252987</v>
+        <v>250510</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>307683</v>
+        <v>310792</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2722720752774934</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2461393710043038</v>
+        <v>0.2437295326643097</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2993549041136921</v>
+        <v>0.3023793777988158</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>44065</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30667</v>
+        <v>32764</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>58484</v>
+        <v>60679</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07991359032326421</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0556157969644336</v>
+        <v>0.05941966318122859</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1060622681203895</v>
+        <v>0.1100430375661695</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>33</v>
@@ -1767,19 +1767,19 @@
         <v>35525</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>25868</v>
+        <v>24824</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49067</v>
+        <v>48110</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07456735765761668</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05429758643814442</v>
+        <v>0.05210511991238157</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.102993201022001</v>
+        <v>0.100982985319802</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>74</v>
@@ -1788,19 +1788,19 @@
         <v>79590</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>63639</v>
+        <v>60487</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>99008</v>
+        <v>98863</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07743552167893009</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06191626688530569</v>
+        <v>0.05885025884255587</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09632817407190412</v>
+        <v>0.09618662139713033</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>7867</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3279</v>
+        <v>3483</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15324</v>
+        <v>17000</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01426761084934491</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0059466847296738</v>
+        <v>0.006315877757730292</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02779135467414603</v>
+        <v>0.03082935089097599</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1838,19 +1838,19 @@
         <v>11412</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5714</v>
+        <v>5717</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20145</v>
+        <v>20062</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0239538754859549</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01199319173233067</v>
+        <v>0.01199925778504527</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.042285574689945</v>
+        <v>0.04210988438039306</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -1859,19 +1859,19 @@
         <v>19279</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11775</v>
+        <v>10921</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31627</v>
+        <v>30722</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01875735721428327</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01145659544768128</v>
+        <v>0.01062531791025904</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03077047074263641</v>
+        <v>0.02989039191036881</v>
       </c>
     </row>
     <row r="20">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7077</v>
+        <v>4758</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002472222977253345</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0148547605297824</v>
+        <v>0.009988154638395145</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6626</v>
+        <v>7639</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001145916877336623</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006446669425512815</v>
+        <v>0.007431846746705275</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>1891839</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1836965</v>
+        <v>1830922</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1951062</v>
+        <v>1944766</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5776851753156648</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5609290878681212</v>
+        <v>0.5590838046114259</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5957692855220883</v>
+        <v>0.5938466674322143</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1882</v>
@@ -2047,19 +2047,19 @@
         <v>1915986</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1863083</v>
+        <v>1859217</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1976374</v>
+        <v>1970030</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5671589223515566</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5514988234010662</v>
+        <v>0.5503544879762726</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5850346818337023</v>
+        <v>0.5831566064868959</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3726</v>
@@ -2068,19 +2068,19 @@
         <v>3807825</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3728081</v>
+        <v>3728415</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3893621</v>
+        <v>3894754</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5723402861873437</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5603543092163363</v>
+        <v>0.5604043770932865</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5852359272739218</v>
+        <v>0.5854062946426564</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>904687</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>853723</v>
+        <v>857425</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>960327</v>
+        <v>956567</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2762520471993395</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2606896395894835</v>
+        <v>0.2618202658214951</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.293241946216015</v>
+        <v>0.2920939590458418</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>876</v>
@@ -2118,19 +2118,19 @@
         <v>897641</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>845292</v>
+        <v>843722</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>950852</v>
+        <v>949639</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2657143456632997</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2502182605430117</v>
+        <v>0.249753573353882</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2814656831480899</v>
+        <v>0.2811065357929733</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1770</v>
@@ -2139,19 +2139,19 @@
         <v>1802328</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1728833</v>
+        <v>1728821</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1877061</v>
+        <v>1875345</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2709013448582958</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2598546413717323</v>
+        <v>0.2598527318034822</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2821341645369725</v>
+        <v>0.2818762498102753</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>383807</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>347782</v>
+        <v>347336</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>421052</v>
+        <v>423572</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1171979999093724</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1061973391163684</v>
+        <v>0.1060612791867001</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1285709459528531</v>
+        <v>0.1293403993465097</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>391</v>
@@ -2189,19 +2189,19 @@
         <v>407897</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>371072</v>
+        <v>371417</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>445257</v>
+        <v>445626</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1207432540756452</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1098427011326487</v>
+        <v>0.1099446265323902</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1318023106895079</v>
+        <v>0.131911737930083</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>772</v>
@@ -2210,19 +2210,19 @@
         <v>791704</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>744428</v>
+        <v>742697</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>846854</v>
+        <v>843342</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1189981647462861</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1118921970562288</v>
+        <v>0.1116321233677828</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.12728754090726</v>
+        <v>0.1267596271940936</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>84504</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67964</v>
+        <v>68369</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103973</v>
+        <v>105346</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02580397185400931</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02075326655444842</v>
+        <v>0.02087689058312858</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03174892486262783</v>
+        <v>0.03216811622981627</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>131</v>
@@ -2260,19 +2260,19 @@
         <v>138901</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>116990</v>
+        <v>116800</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>163864</v>
+        <v>161953</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04111661031946665</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03463070794609234</v>
+        <v>0.03457449936365219</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04850617618558323</v>
+        <v>0.04794049221562395</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>215</v>
@@ -2281,19 +2281,19 @@
         <v>223405</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>196381</v>
+        <v>195700</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>256481</v>
+        <v>259283</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03357923197164119</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02951736109310844</v>
+        <v>0.0294148855218979</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03855067570317415</v>
+        <v>0.03897188313338534</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>10024</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4693</v>
+        <v>4752</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18092</v>
+        <v>19796</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003060805721613972</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001433075983502388</v>
+        <v>0.001451129745975857</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.005524577834560482</v>
+        <v>0.006044719332688979</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -2331,19 +2331,19 @@
         <v>17793</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9767</v>
+        <v>10022</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27603</v>
+        <v>28185</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005266867590031726</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002891185810479231</v>
+        <v>0.002966756707373645</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008170874622488049</v>
+        <v>0.008343127437593837</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -2352,19 +2352,19 @@
         <v>27816</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18377</v>
+        <v>17989</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40962</v>
+        <v>41356</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004180972236433124</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002762116635734415</v>
+        <v>0.002703919556562782</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006156901189291734</v>
+        <v>0.006216113376663255</v>
       </c>
     </row>
     <row r="27">
@@ -2695,19 +2695,19 @@
         <v>537258</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>502030</v>
+        <v>506019</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>566140</v>
+        <v>570662</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5551112565242906</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5187127501501015</v>
+        <v>0.5228335761115334</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5849524787018193</v>
+        <v>0.5896253506704531</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>666</v>
@@ -2716,19 +2716,19 @@
         <v>711342</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>676844</v>
+        <v>672882</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>750007</v>
+        <v>748227</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5337783724415682</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5078921315587522</v>
+        <v>0.5049185033370501</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5627923187539973</v>
+        <v>0.5614560075271354</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1172</v>
@@ -2737,19 +2737,19 @@
         <v>1248600</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1198447</v>
+        <v>1198803</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1293359</v>
+        <v>1295862</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5427533195035563</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5209521592463027</v>
+        <v>0.5211070647482242</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5622094171255307</v>
+        <v>0.5632976377691844</v>
       </c>
     </row>
     <row r="5">
@@ -2766,19 +2766,19 @@
         <v>283285</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>257084</v>
+        <v>254337</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>311870</v>
+        <v>313824</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2926983109134862</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2656272256256267</v>
+        <v>0.2627889776289702</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3222330258607435</v>
+        <v>0.3242524345697134</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>402</v>
@@ -2787,19 +2787,19 @@
         <v>432288</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>398697</v>
+        <v>398169</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>468671</v>
+        <v>469779</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3243810991270966</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2991752894032598</v>
+        <v>0.298779213648948</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3516827365294553</v>
+        <v>0.3525135366101925</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>661</v>
@@ -2808,19 +2808,19 @@
         <v>715573</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>671527</v>
+        <v>672425</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>759540</v>
+        <v>763572</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3110518490411398</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2919056755943643</v>
+        <v>0.2922961601533476</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3301641426208454</v>
+        <v>0.3319166736432835</v>
       </c>
     </row>
     <row r="6">
@@ -2837,19 +2837,19 @@
         <v>115391</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97418</v>
+        <v>96013</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>140546</v>
+        <v>136884</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1192259102057379</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1006549774521955</v>
+        <v>0.0992030122051975</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1452165190406747</v>
+        <v>0.1414322365093567</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>134</v>
@@ -2858,19 +2858,19 @@
         <v>146650</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>123543</v>
+        <v>126394</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>171993</v>
+        <v>173711</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.110043327654746</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09270415560281137</v>
+        <v>0.09484373772457765</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1290608094367744</v>
+        <v>0.1303499659875168</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>241</v>
@@ -2879,19 +2879,19 @@
         <v>262041</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>231575</v>
+        <v>230994</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>294938</v>
+        <v>295992</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1139065273968866</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1006633884241167</v>
+        <v>0.1004105380511727</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1282065123040703</v>
+        <v>0.1286646225962164</v>
       </c>
     </row>
     <row r="7">
@@ -2908,19 +2908,19 @@
         <v>23496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15301</v>
+        <v>15143</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35042</v>
+        <v>35174</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02427673941778352</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0158090119671022</v>
+        <v>0.01564668649379948</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03620664406125883</v>
+        <v>0.03634300285533664</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -2929,19 +2929,19 @@
         <v>31998</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21781</v>
+        <v>21397</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44436</v>
+        <v>44244</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02401073646712529</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01634370498441443</v>
+        <v>0.01605583779495407</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03334414001027743</v>
+        <v>0.03319987182388533</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -2950,19 +2950,19 @@
         <v>55494</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42216</v>
+        <v>42860</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73119</v>
+        <v>73273</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02412264643631805</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01835097673300756</v>
+        <v>0.018630949183907</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03178409931791253</v>
+        <v>0.0318511796787392</v>
       </c>
     </row>
     <row r="8">
@@ -2979,19 +2979,19 @@
         <v>8408</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4127</v>
+        <v>3233</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18762</v>
+        <v>16771</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.008687782938701788</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004264260011103447</v>
+        <v>0.003340583790676301</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0193856685962213</v>
+        <v>0.01732847046449917</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -3000,19 +3000,19 @@
         <v>10377</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5099</v>
+        <v>5129</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17724</v>
+        <v>18702</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007786464309463881</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003825910764538577</v>
+        <v>0.003848520738588077</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01329958947185882</v>
+        <v>0.01403383298153575</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -3021,19 +3021,19 @@
         <v>18785</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11736</v>
+        <v>11215</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31775</v>
+        <v>28896</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008165657622099254</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005101578398536586</v>
+        <v>0.004875107566512431</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01381236271026825</v>
+        <v>0.01256097955981171</v>
       </c>
     </row>
     <row r="9">
@@ -3125,19 +3125,19 @@
         <v>1247595</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1198901</v>
+        <v>1207152</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1290397</v>
+        <v>1292665</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6369223970299978</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6120634295072321</v>
+        <v>0.616275628798995</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6587739280583444</v>
+        <v>0.6599317925771198</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>952</v>
@@ -3146,19 +3146,19 @@
         <v>1014317</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>973641</v>
+        <v>969662</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1057479</v>
+        <v>1059038</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5786565309827501</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5554513275662769</v>
+        <v>0.5531816725131323</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6032804588804043</v>
+        <v>0.6041694872820028</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2143</v>
@@ -3167,19 +3167,19 @@
         <v>2261911</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2202324</v>
+        <v>2199658</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2325851</v>
+        <v>2317638</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6094056065059877</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5933517666078481</v>
+        <v>0.5926333313732534</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6266325455411041</v>
+        <v>0.6244197210577818</v>
       </c>
     </row>
     <row r="11">
@@ -3196,19 +3196,19 @@
         <v>516493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>474290</v>
+        <v>473886</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>560166</v>
+        <v>553046</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2636802555793553</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2421348412925445</v>
+        <v>0.2419282376438577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2859761483637492</v>
+        <v>0.2823411676229711</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>497</v>
@@ -3217,19 +3217,19 @@
         <v>538396</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>502523</v>
+        <v>497280</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>580236</v>
+        <v>576994</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3071492195630109</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2866836304056</v>
+        <v>0.2836929074524966</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3310180118679393</v>
+        <v>0.3291690378913278</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>976</v>
@@ -3238,19 +3238,19 @@
         <v>1054889</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>999786</v>
+        <v>999687</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1114831</v>
+        <v>1109339</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2842090223750646</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2693629846535499</v>
+        <v>0.2693363840216519</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3003585265421165</v>
+        <v>0.298878907970783</v>
       </c>
     </row>
     <row r="12">
@@ -3267,19 +3267,19 @@
         <v>166982</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>144347</v>
+        <v>141855</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>193744</v>
+        <v>191732</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08524767974645267</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07369191222678798</v>
+        <v>0.07241964664046395</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09891022781921233</v>
+        <v>0.09788302970815926</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>137</v>
@@ -3288,19 +3288,19 @@
         <v>150395</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>123738</v>
+        <v>128560</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>175153</v>
+        <v>176893</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08579873686500042</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07059123000979145</v>
+        <v>0.07334195093439493</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09992271122220985</v>
+        <v>0.100915668918802</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>292</v>
@@ -3309,19 +3309,19 @@
         <v>317377</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>283901</v>
+        <v>285903</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>356262</v>
+        <v>359994</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08550792342472473</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0764888445466065</v>
+        <v>0.07702831309594829</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09598423771419651</v>
+        <v>0.09698984693875533</v>
       </c>
     </row>
     <row r="13">
@@ -3338,19 +3338,19 @@
         <v>21813</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13819</v>
+        <v>13701</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32615</v>
+        <v>33397</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01113613458311477</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007055068810199259</v>
+        <v>0.006994839905063997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0166508695894937</v>
+        <v>0.01704997599016432</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -3359,19 +3359,19 @@
         <v>37590</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27468</v>
+        <v>26589</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53087</v>
+        <v>51020</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0214448219923365</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01567005974477795</v>
+        <v>0.01516877047861561</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03028578288623221</v>
+        <v>0.0291063668970448</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -3380,19 +3380,19 @@
         <v>59404</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46312</v>
+        <v>45381</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79475</v>
+        <v>77239</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01600454230208753</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01247730530253567</v>
+        <v>0.01222655727151231</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02141233926513188</v>
+        <v>0.02080981436511349</v>
       </c>
     </row>
     <row r="14">
@@ -3409,19 +3409,19 @@
         <v>5903</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12887</v>
+        <v>11900</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003013533061079574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001020066293275553</v>
+        <v>0.001020292197003833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.006579155770994541</v>
+        <v>0.006075344378309378</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -3430,19 +3430,19 @@
         <v>12184</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7006</v>
+        <v>6342</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22890</v>
+        <v>21148</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006950690596902159</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003996714274706531</v>
+        <v>0.003617920230324208</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01305871508606397</v>
+        <v>0.0120648467501788</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -3451,19 +3451,19 @@
         <v>18087</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10898</v>
+        <v>10986</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28990</v>
+        <v>31109</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0048729053921354</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002936073084777827</v>
+        <v>0.0029597835724993</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007810426698898754</v>
+        <v>0.00838146861501282</v>
       </c>
     </row>
     <row r="15">
@@ -3555,19 +3555,19 @@
         <v>305494</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>283822</v>
+        <v>280784</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>327389</v>
+        <v>325568</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.637660489017489</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5924243096870435</v>
+        <v>0.5860844079920084</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6833632433094987</v>
+        <v>0.6795630403053909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>291</v>
@@ -3576,19 +3576,19 @@
         <v>320165</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>299511</v>
+        <v>297776</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>340064</v>
+        <v>340067</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6998205783088519</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6546742672051727</v>
+        <v>0.650882246849076</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7433148070396554</v>
+        <v>0.7433220821810513</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>571</v>
@@ -3597,19 +3597,19 @@
         <v>625659</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>591880</v>
+        <v>594878</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>656352</v>
+        <v>658372</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6680241173034472</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6319577322589349</v>
+        <v>0.6351591052073668</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7007955931768599</v>
+        <v>0.7029526924974691</v>
       </c>
     </row>
     <row r="17">
@@ -3626,19 +3626,19 @@
         <v>137837</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>117504</v>
+        <v>118546</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>157695</v>
+        <v>161200</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2877092400711421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2452669551031195</v>
+        <v>0.2474432081377339</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3291586577769147</v>
+        <v>0.3364743428197355</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>94</v>
@@ -3647,19 +3647,19 @@
         <v>106706</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>88978</v>
+        <v>88661</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>127439</v>
+        <v>128209</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2332396306824182</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1944887507683136</v>
+        <v>0.1937966307754256</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2785583644273724</v>
+        <v>0.2802397040232538</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>219</v>
@@ -3668,19 +3668,19 @@
         <v>244543</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>216573</v>
+        <v>217451</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>275244</v>
+        <v>274152</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.261102216316587</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2312380728741593</v>
+        <v>0.232175567196178</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2938816178973926</v>
+        <v>0.2927154271757232</v>
       </c>
     </row>
     <row r="18">
@@ -3697,19 +3697,19 @@
         <v>31289</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20865</v>
+        <v>20693</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>44926</v>
+        <v>44908</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06531065410872654</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04355177800728525</v>
+        <v>0.04319349309951302</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09377502431916253</v>
+        <v>0.09373713791679095</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -3718,19 +3718,19 @@
         <v>28723</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19264</v>
+        <v>19247</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42628</v>
+        <v>42132</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06278269812594123</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04210705337470552</v>
+        <v>0.04206935186332252</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09317696432797386</v>
+        <v>0.09209336769758628</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>51</v>
@@ -3739,19 +3739,19 @@
         <v>60012</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>46422</v>
+        <v>44660</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>79292</v>
+        <v>79130</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06407581167752006</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04956547001307336</v>
+        <v>0.04768444382163076</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08466110706625585</v>
+        <v>0.08448825147857585</v>
       </c>
     </row>
     <row r="19">
@@ -3768,19 +3768,19 @@
         <v>4465</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1219</v>
+        <v>1172</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10569</v>
+        <v>10618</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009319616802642428</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002544357448432305</v>
+        <v>0.002445555796091476</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02206135273348119</v>
+        <v>0.02216392130945636</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5825</v>
+        <v>6689</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004157092882788651</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01273208097114443</v>
+        <v>0.01462075350231383</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -3810,19 +3810,19 @@
         <v>6367</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2231</v>
+        <v>2235</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13283</v>
+        <v>13421</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006797854702445619</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002382244239904097</v>
+        <v>0.002385876077688202</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01418285324969525</v>
+        <v>0.01432953753272568</v>
       </c>
     </row>
     <row r="20">
@@ -3961,19 +3961,19 @@
         <v>2090347</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2028211</v>
+        <v>2028736</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2149380</v>
+        <v>2151536</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6137770241025211</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5955325429668992</v>
+        <v>0.5956867039012598</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6311107657089579</v>
+        <v>0.6317437429964496</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1909</v>
@@ -3982,19 +3982,19 @@
         <v>2045823</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1992652</v>
+        <v>1989909</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2109217</v>
+        <v>2114756</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5774217199811975</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5624144808577279</v>
+        <v>0.5616402166132779</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5953141851036137</v>
+        <v>0.5968776015644578</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3886</v>
@@ -4003,19 +4003,19 @@
         <v>4136170</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4050942</v>
+        <v>4046643</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4222559</v>
+        <v>4215550</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5952401433787821</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5829749813675267</v>
+        <v>0.5823562956041924</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6076724630244446</v>
+        <v>0.60666382625051</v>
       </c>
     </row>
     <row r="23">
@@ -4032,19 +4032,19 @@
         <v>937615</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>884973</v>
+        <v>885638</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>996039</v>
+        <v>992677</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2753068290292859</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2598498922830643</v>
+        <v>0.2600449838402837</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2924615014430655</v>
+        <v>0.2914742170738587</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>993</v>
@@ -4053,19 +4053,19 @@
         <v>1077390</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1017848</v>
+        <v>1020886</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1129522</v>
+        <v>1130753</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.304087091930403</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2872816629245993</v>
+        <v>0.2881392046707048</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3188010722895794</v>
+        <v>0.3191484001725974</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1856</v>
@@ -4074,19 +4074,19 @@
         <v>2015005</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1932803</v>
+        <v>1937073</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2092988</v>
+        <v>2093230</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2899813397641017</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2781515271068707</v>
+        <v>0.2787660659478071</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3012039185026111</v>
+        <v>0.3012387391732729</v>
       </c>
     </row>
     <row r="24">
@@ -4103,19 +4103,19 @@
         <v>313663</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>279265</v>
+        <v>279651</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>348374</v>
+        <v>349072</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09209909667178144</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0819991846653397</v>
+        <v>0.08211225449149508</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1022910927114771</v>
+        <v>0.1024960397763019</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>295</v>
@@ -4124,19 +4124,19 @@
         <v>325767</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>291895</v>
+        <v>292590</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>361352</v>
+        <v>362904</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09194598592780123</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08238558989043207</v>
+        <v>0.08258174094600709</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1019894019285612</v>
+        <v>0.1024274328137198</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>584</v>
@@ -4145,19 +4145,19 @@
         <v>639430</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>591365</v>
+        <v>588742</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>689238</v>
+        <v>683188</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09202102840451534</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08510397354336072</v>
+        <v>0.08472641173348286</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09918889815338838</v>
+        <v>0.09831830598724933</v>
       </c>
     </row>
     <row r="25">
@@ -4174,19 +4174,19 @@
         <v>49774</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36042</v>
+        <v>37751</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>65940</v>
+        <v>67164</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01461491802194492</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01058274230574058</v>
+        <v>0.01108463269842656</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01936152326003167</v>
+        <v>0.01972085881258129</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>66</v>
@@ -4195,19 +4195,19 @@
         <v>71490</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56009</v>
+        <v>55967</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>90578</v>
+        <v>92253</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02017766086175363</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01580818463275896</v>
+        <v>0.01579639296167393</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02556511077026802</v>
+        <v>0.02603789686250103</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -4216,19 +4216,19 @@
         <v>121264</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>100572</v>
+        <v>100549</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>147351</v>
+        <v>147205</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01745125519503671</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01447336577840165</v>
+        <v>0.01447015831001651</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02120540895451288</v>
+        <v>0.0211843445716113</v>
       </c>
     </row>
     <row r="26">
@@ -4245,19 +4245,19 @@
         <v>14311</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7362</v>
+        <v>8033</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24990</v>
+        <v>26213</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004202132174466657</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002161576266621009</v>
+        <v>0.002358827815940459</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007337654506705553</v>
+        <v>0.007696802419376207</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -4266,19 +4266,19 @@
         <v>22560</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13736</v>
+        <v>14264</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34031</v>
+        <v>34807</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006367541298844637</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003876817047478901</v>
+        <v>0.004026003187831214</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.009604988946986259</v>
+        <v>0.009824181950465935</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -4287,19 +4287,19 @@
         <v>36872</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25652</v>
+        <v>25866</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>51880</v>
+        <v>51977</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005306233257564112</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003691649345928765</v>
+        <v>0.003722388722043021</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007466143799460997</v>
+        <v>0.007480075286061719</v>
       </c>
     </row>
     <row r="27">
@@ -4630,19 +4630,19 @@
         <v>378579</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>352915</v>
+        <v>351662</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>407360</v>
+        <v>405390</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5036907208800822</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4695441568936527</v>
+        <v>0.4678771941947337</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5419827007567769</v>
+        <v>0.5393607870704934</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>423</v>
@@ -4651,19 +4651,19 @@
         <v>471629</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>437971</v>
+        <v>438682</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>503521</v>
+        <v>503121</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4747681861433284</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4408857142530466</v>
+        <v>0.4416013065722695</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5068717281157644</v>
+        <v>0.5064694758992769</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>805</v>
@@ -4672,19 +4672,19 @@
         <v>850209</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>811115</v>
+        <v>808970</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>893010</v>
+        <v>892103</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4872257773978755</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4648224570053699</v>
+        <v>0.4635934067880669</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.511753709955279</v>
+        <v>0.511233655972855</v>
       </c>
     </row>
     <row r="5">
@@ -4701,19 +4701,19 @@
         <v>228654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>202340</v>
+        <v>203170</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>253665</v>
+        <v>252877</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3042182748484159</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2692088021462872</v>
+        <v>0.2703131862935451</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3374949993282395</v>
+        <v>0.3364470438450657</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -4722,19 +4722,19 @@
         <v>293730</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>265129</v>
+        <v>263946</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>324013</v>
+        <v>325060</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2956848825366413</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2668937253444887</v>
+        <v>0.2657026807913727</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3261690710864237</v>
+        <v>0.327223020259326</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>496</v>
@@ -4743,19 +4743,19 @@
         <v>522384</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>487561</v>
+        <v>484784</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>563736</v>
+        <v>563263</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2993604080188423</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2794043426369983</v>
+        <v>0.2778129557827573</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.323057873291407</v>
+        <v>0.3227868334211252</v>
       </c>
     </row>
     <row r="6">
@@ -4772,19 +4772,19 @@
         <v>112659</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>93396</v>
+        <v>93814</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131876</v>
+        <v>132715</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1498897741336591</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1242616336384231</v>
+        <v>0.1248178811176517</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1754571879007674</v>
+        <v>0.1765736068852908</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>163</v>
@@ -4793,19 +4793,19 @@
         <v>180736</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>155951</v>
+        <v>157551</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>204531</v>
+        <v>206262</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1819389934216141</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1569890463030038</v>
+        <v>0.1585992360613754</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.20589186068736</v>
+        <v>0.2076342360926656</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>279</v>
@@ -4814,19 +4814,19 @@
         <v>293395</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>263738</v>
+        <v>263107</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>326459</v>
+        <v>329343</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1681346682630266</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1511391693123792</v>
+        <v>0.1507776309782655</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1870826266892238</v>
+        <v>0.188735200952561</v>
       </c>
     </row>
     <row r="7">
@@ -4843,19 +4843,19 @@
         <v>28229</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19159</v>
+        <v>19496</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39220</v>
+        <v>39611</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03755771286221839</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02549007322949479</v>
+        <v>0.02593921702054128</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05218123652807633</v>
+        <v>0.05270173082184732</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -4864,19 +4864,19 @@
         <v>37405</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26633</v>
+        <v>26059</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52462</v>
+        <v>52710</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03765392599831089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02681029917338866</v>
+        <v>0.02623265525437533</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05281142345971647</v>
+        <v>0.05306046798486055</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -4885,19 +4885,19 @@
         <v>65634</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51493</v>
+        <v>50067</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84558</v>
+        <v>83201</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03761248481987796</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02950890608353781</v>
+        <v>0.02869171633184972</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04845755439566672</v>
+        <v>0.04767968889109627</v>
       </c>
     </row>
     <row r="8">
@@ -4914,19 +4914,19 @@
         <v>3490</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10207</v>
+        <v>9914</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004643517275624475</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00115524093548032</v>
+        <v>0.001147426868655222</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0135800174250261</v>
+        <v>0.01319081160043668</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -4935,19 +4935,19 @@
         <v>9888</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4301</v>
+        <v>4771</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20357</v>
+        <v>19672</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00995401190010526</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00432950670250191</v>
+        <v>0.004802600710640487</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02049250204749722</v>
+        <v>0.0198031039658282</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -4956,19 +4956,19 @@
         <v>13378</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7251</v>
+        <v>7370</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23477</v>
+        <v>25471</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007666661500377583</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004155558432877582</v>
+        <v>0.004223361363438617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01345379508812485</v>
+        <v>0.01459650340979098</v>
       </c>
     </row>
     <row r="9">
@@ -5060,19 +5060,19 @@
         <v>1102472</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1057914</v>
+        <v>1054053</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1152052</v>
+        <v>1151740</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5318545002347875</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5103588974392128</v>
+        <v>0.5084959539430286</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5557727947428672</v>
+        <v>0.5556221294870259</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1012</v>
@@ -5081,19 +5081,19 @@
         <v>1047048</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1001562</v>
+        <v>1003689</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1088817</v>
+        <v>1093241</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5289762587371869</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5059962806170041</v>
+        <v>0.5070711236245804</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.550078289254493</v>
+        <v>0.5523134107345548</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2052</v>
@@ -5102,19 +5102,19 @@
         <v>2149520</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2078147</v>
+        <v>2087009</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2218348</v>
+        <v>2213059</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5304485839482503</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5128353146443094</v>
+        <v>0.5150224335402388</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5474336331172999</v>
+        <v>0.5461283531139449</v>
       </c>
     </row>
     <row r="11">
@@ -5131,19 +5131,19 @@
         <v>647510</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>604807</v>
+        <v>602755</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>693258</v>
+        <v>694296</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3123715931204347</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2917711140725466</v>
+        <v>0.2907809553776727</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.334441524649405</v>
+        <v>0.3349422372487244</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>613</v>
@@ -5152,19 +5152,19 @@
         <v>638732</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>601968</v>
+        <v>598123</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>683246</v>
+        <v>682065</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3226922311253067</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3041186139000464</v>
+        <v>0.3021762659574987</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3451806284375106</v>
+        <v>0.344584326444707</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1222</v>
@@ -5173,19 +5173,19 @@
         <v>1286242</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1226555</v>
+        <v>1219876</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1349788</v>
+        <v>1347563</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3174128494120279</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3026834660085742</v>
+        <v>0.3010352027436208</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3330943464665875</v>
+        <v>0.3325454075953845</v>
       </c>
     </row>
     <row r="12">
@@ -5202,19 +5202,19 @@
         <v>284150</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>255474</v>
+        <v>253022</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>319014</v>
+        <v>319966</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1370796627009433</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1232455842295347</v>
+        <v>0.122062661152451</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1538989375823577</v>
+        <v>0.1543581216875972</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>237</v>
@@ -5223,19 +5223,19 @@
         <v>254019</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>224108</v>
+        <v>223399</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>284522</v>
+        <v>285827</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.12833210640286</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1132210041789132</v>
+        <v>0.1128627899037374</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1437424322705055</v>
+        <v>0.1444019973654646</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>499</v>
@@ -5244,19 +5244,19 @@
         <v>538169</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>495082</v>
+        <v>494609</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>582442</v>
+        <v>584759</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1328067996082779</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.122174073333357</v>
+        <v>0.1220572763222914</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1437322364202318</v>
+        <v>0.1443040162302491</v>
       </c>
     </row>
     <row r="13">
@@ -5273,19 +5273,19 @@
         <v>32302</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22446</v>
+        <v>22277</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44815</v>
+        <v>44237</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01558331801646162</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01082850116589589</v>
+        <v>0.01074695156669193</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02161958818444053</v>
+        <v>0.02134095963766286</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -5294,19 +5294,19 @@
         <v>31132</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22139</v>
+        <v>22097</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44712</v>
+        <v>43245</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0157282793836606</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01118485802891046</v>
+        <v>0.01116350026850717</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02258872055440624</v>
+        <v>0.0218475331384401</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -5315,19 +5315,19 @@
         <v>63435</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49022</v>
+        <v>49990</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81173</v>
+        <v>80618</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01565412637192229</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01209731233437062</v>
+        <v>0.01233619620686837</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02003151624825781</v>
+        <v>0.01989459212494574</v>
       </c>
     </row>
     <row r="14">
@@ -5344,19 +5344,19 @@
         <v>6449</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2270</v>
+        <v>2202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13729</v>
+        <v>13919</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003110925927372854</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001095015832073448</v>
+        <v>0.00106217529615122</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.006623155308428536</v>
+        <v>0.00671469152877609</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -5365,19 +5365,19 @@
         <v>8454</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3518</v>
+        <v>3219</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16139</v>
+        <v>15575</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004271124350985808</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001777087159460839</v>
+        <v>0.001626416751904007</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.008153306959687688</v>
+        <v>0.007868442795506353</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -5386,19 +5386,19 @@
         <v>14903</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8258</v>
+        <v>8619</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24403</v>
+        <v>24310</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003677640659521608</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00203775356084798</v>
+        <v>0.002126908968986047</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006022154500478281</v>
+        <v>0.005999206411488902</v>
       </c>
     </row>
     <row r="15">
@@ -5490,19 +5490,19 @@
         <v>336159</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>312476</v>
+        <v>311131</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>357251</v>
+        <v>358856</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6167269395665849</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5732764830936766</v>
+        <v>0.5708090212290752</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6554216989299476</v>
+        <v>0.6583663649210926</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>329</v>
@@ -5511,19 +5511,19 @@
         <v>339513</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>315927</v>
+        <v>316145</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>362820</v>
+        <v>363118</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6193162705737876</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.576292700692303</v>
+        <v>0.5766896928973977</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6618318514093262</v>
+        <v>0.6623754973666667</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>637</v>
@@ -5532,19 +5532,19 @@
         <v>675672</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>643646</v>
+        <v>644861</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>710531</v>
+        <v>712880</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6180253190277204</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5887314269737736</v>
+        <v>0.5898432214319207</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6499097231983714</v>
+        <v>0.6520583457835675</v>
       </c>
     </row>
     <row r="17">
@@ -5561,19 +5561,19 @@
         <v>167503</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>147476</v>
+        <v>147534</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>191976</v>
+        <v>193173</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3073053069933089</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2705636738740453</v>
+        <v>0.2706698800231174</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3522046132890121</v>
+        <v>0.3544008976969164</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>156</v>
@@ -5582,19 +5582,19 @@
         <v>166185</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>144359</v>
+        <v>143863</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>189927</v>
+        <v>187705</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3031438834996447</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2633297619969633</v>
+        <v>0.262425404819029</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3464523712741346</v>
+        <v>0.3423989636276491</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>310</v>
@@ -5603,19 +5603,19 @@
         <v>333688</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>302585</v>
+        <v>300609</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>367284</v>
+        <v>365168</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3052186263880751</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2767687999968187</v>
+        <v>0.2749616347176942</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3359484039255359</v>
+        <v>0.334013012556764</v>
       </c>
     </row>
     <row r="18">
@@ -5632,19 +5632,19 @@
         <v>37831</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25608</v>
+        <v>26948</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52478</v>
+        <v>51438</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06940665928268916</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04698189887866962</v>
+        <v>0.04943934209209846</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09627694671248502</v>
+        <v>0.09436911184126003</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>35</v>
@@ -5653,19 +5653,19 @@
         <v>37216</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26467</v>
+        <v>26999</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>50966</v>
+        <v>50843</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06788759401109297</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04827889810996242</v>
+        <v>0.0492492530500981</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09296798735911721</v>
+        <v>0.09274421349408882</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>69</v>
@@ -5674,19 +5674,19 @@
         <v>75048</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>59371</v>
+        <v>59769</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>93626</v>
+        <v>94783</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06864494780459755</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0543052674652272</v>
+        <v>0.05466954355930998</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08563790632346463</v>
+        <v>0.08669659697355603</v>
       </c>
     </row>
     <row r="19">
@@ -5703,19 +5703,19 @@
         <v>3576</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10280</v>
+        <v>11290</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00656109415741698</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0</v>
+        <v>0.001878663742771535</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01886059602519249</v>
+        <v>0.02071364302115239</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -5724,19 +5724,19 @@
         <v>4286</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10188</v>
+        <v>10315</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007817625981448802</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001896796558698329</v>
+        <v>0.001859733276712132</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01858350595863597</v>
+        <v>0.01881559470882682</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -5745,19 +5745,19 @@
         <v>7862</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2954</v>
+        <v>3391</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15172</v>
+        <v>16413</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007191162351884167</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002701931183849968</v>
+        <v>0.003102103007473894</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01387736096279358</v>
+        <v>0.01501259358912301</v>
       </c>
     </row>
     <row r="20">
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4082</v>
+        <v>4493</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001834625934025934</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.007445436051412171</v>
+        <v>0.00819626196705305</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4597</v>
+        <v>5037</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0009199444277227636</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004204689978527223</v>
+        <v>0.004607591706245155</v>
       </c>
     </row>
     <row r="21">
@@ -5912,19 +5912,19 @@
         <v>1817211</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1759685</v>
+        <v>1760856</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1874387</v>
+        <v>1877835</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5393015127166116</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5222293433189731</v>
+        <v>0.522576761151346</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.556269833605385</v>
+        <v>0.5572931910235637</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1764</v>
@@ -5933,19 +5933,19 @@
         <v>1858191</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1796731</v>
+        <v>1799751</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1919521</v>
+        <v>1920205</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.52774797094129</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5102928604659777</v>
+        <v>0.5111503436382449</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5451664599653571</v>
+        <v>0.5453607223340784</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3494</v>
@@ -5954,19 +5954,19 @@
         <v>3675402</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3592693</v>
+        <v>3592630</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3755371</v>
+        <v>3759578</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5333977993891501</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5213945707973158</v>
+        <v>0.5213855293797192</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5450034768653578</v>
+        <v>0.5456139735384855</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>1043666</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>993684</v>
+        <v>986466</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1101058</v>
+        <v>1096695</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3097333869155957</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.294899889984043</v>
+        <v>0.2927576460127901</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3267657266393666</v>
+        <v>0.3254710166165508</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1035</v>
@@ -6004,19 +6004,19 @@
         <v>1098648</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1043821</v>
+        <v>1042222</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1154665</v>
+        <v>1154985</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3120289171666502</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2964573773781068</v>
+        <v>0.2960033370703971</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3279384840735536</v>
+        <v>0.3280294272144181</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2028</v>
@@ -6025,19 +6025,19 @@
         <v>2142314</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2068518</v>
+        <v>2063402</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2220853</v>
+        <v>2222554</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3109063737624246</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.300196589219868</v>
+        <v>0.2994541004118911</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3223043835032914</v>
+        <v>0.3225513008568707</v>
       </c>
     </row>
     <row r="24">
@@ -6054,19 +6054,19 @@
         <v>434640</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>393019</v>
+        <v>394432</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>479064</v>
+        <v>478774</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1289901050406353</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1166377916027844</v>
+        <v>0.1170572535296929</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1421739291441696</v>
+        <v>0.142087713294283</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>435</v>
@@ -6075,19 +6075,19 @@
         <v>471971</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>427788</v>
+        <v>425948</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>510852</v>
+        <v>510235</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1340454166849064</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1214968906505149</v>
+        <v>0.1209743776222032</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1450881004083603</v>
+        <v>0.1449127865990876</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>847</v>
@@ -6096,19 +6096,19 @@
         <v>906612</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>848410</v>
+        <v>850232</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>956808</v>
+        <v>962173</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1315733051803971</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1231267105434237</v>
+        <v>0.1233910683097272</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1388581651538657</v>
+        <v>0.1396366349722944</v>
       </c>
     </row>
     <row r="25">
@@ -6125,19 +6125,19 @@
         <v>64107</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49901</v>
+        <v>50748</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80339</v>
+        <v>82676</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01902544301082913</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01480925885738971</v>
+        <v>0.01506063025870578</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02384243254493932</v>
+        <v>0.02453615618302019</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -6146,19 +6146,19 @@
         <v>72823</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57546</v>
+        <v>56685</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>93919</v>
+        <v>94386</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02068258934085769</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01634370746390304</v>
+        <v>0.01609924434196734</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02667407731576849</v>
+        <v>0.02680684174936406</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>129</v>
@@ -6167,19 +6167,19 @@
         <v>136930</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>113859</v>
+        <v>115993</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>159717</v>
+        <v>161196</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01987222376987226</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0165239456362778</v>
+        <v>0.01683371091269007</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02317921517078105</v>
+        <v>0.02339383447738252</v>
       </c>
     </row>
     <row r="26">
@@ -6196,19 +6196,19 @@
         <v>9939</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4858</v>
+        <v>4870</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17822</v>
+        <v>19485</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002949552316328278</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001441780849530084</v>
+        <v>0.001445324851646885</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.00528911823384274</v>
+        <v>0.005782756679619086</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -6217,19 +6217,19 @@
         <v>19348</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10868</v>
+        <v>11794</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30143</v>
+        <v>30402</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005495105866295817</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003086755363919635</v>
+        <v>0.003349721592907201</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008560987152392379</v>
+        <v>0.008634436775548569</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>26</v>
@@ -6238,19 +6238,19 @@
         <v>29287</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19158</v>
+        <v>19357</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>43100</v>
+        <v>43445</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00425029789815587</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002780266570166251</v>
+        <v>0.002809196610473037</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006254960880830382</v>
+        <v>0.006305057169520289</v>
       </c>
     </row>
     <row r="27">
@@ -6581,19 +6581,19 @@
         <v>293051</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>269741</v>
+        <v>269693</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>316532</v>
+        <v>315695</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5077266376588614</v>
+        <v>0.5077266376588615</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4673408644563451</v>
+        <v>0.4672587160582121</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5484090072375918</v>
+        <v>0.5469597256472628</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>662</v>
@@ -6602,19 +6602,19 @@
         <v>378406</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>356850</v>
+        <v>355602</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>401505</v>
+        <v>400420</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4632346480056803</v>
+        <v>0.4632346480056802</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4368458612824647</v>
+        <v>0.435318013417175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4915110758191503</v>
+        <v>0.4901831799125998</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1007</v>
@@ -6623,19 +6623,19 @@
         <v>671457</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>637444</v>
+        <v>638664</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>703066</v>
+        <v>704807</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4816556469428517</v>
+        <v>0.4816556469428516</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4572571077596742</v>
+        <v>0.4581318267715152</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5043292699992569</v>
+        <v>0.5055785663928486</v>
       </c>
     </row>
     <row r="5">
@@ -6652,19 +6652,19 @@
         <v>157768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>138655</v>
+        <v>139532</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>179313</v>
+        <v>180867</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.273341941800183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2402279980822828</v>
+        <v>0.2417477413652817</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3106700504070306</v>
+        <v>0.3133616649438664</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>443</v>
@@ -6673,19 +6673,19 @@
         <v>253686</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>232988</v>
+        <v>234884</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>272856</v>
+        <v>274448</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3105553799873222</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2852178336934086</v>
+        <v>0.2875382161170145</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.334022883372489</v>
+        <v>0.335972111570036</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>634</v>
@@ -6694,19 +6694,19 @@
         <v>411454</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>385486</v>
+        <v>382789</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>441763</v>
+        <v>442158</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2951479165172149</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2765204538720698</v>
+        <v>0.2745855273875327</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3168891717072932</v>
+        <v>0.3171723578168295</v>
       </c>
     </row>
     <row r="6">
@@ -6723,19 +6723,19 @@
         <v>78865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64432</v>
+        <v>63518</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>96690</v>
+        <v>96438</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1366371565422896</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1116323717663247</v>
+        <v>0.1100489831689015</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1675207290220478</v>
+        <v>0.1670841615208021</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>193</v>
@@ -6744,19 +6744,19 @@
         <v>110693</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>97303</v>
+        <v>95083</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>126285</v>
+        <v>125434</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1355079444634858</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1191155795227235</v>
+        <v>0.1163979969931435</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1545951312832603</v>
+        <v>0.1535532492211851</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>290</v>
@@ -6765,19 +6765,19 @@
         <v>189558</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>168442</v>
+        <v>168450</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>212221</v>
+        <v>212126</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1359754716445724</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1208285615648382</v>
+        <v>0.1208341020655147</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1522325325686699</v>
+        <v>0.1521637913032619</v>
       </c>
     </row>
     <row r="7">
@@ -6794,19 +6794,19 @@
         <v>35159</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25557</v>
+        <v>26036</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52292</v>
+        <v>54212</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06091572059595596</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04427878518288447</v>
+        <v>0.04510904662688742</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09059926223970216</v>
+        <v>0.09392530969715954</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>97</v>
@@ -6815,19 +6815,19 @@
         <v>59516</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48363</v>
+        <v>49157</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72545</v>
+        <v>73077</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07285760835607606</v>
+        <v>0.07285760835607605</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05920480961834242</v>
+        <v>0.06017652349553085</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08880737661855473</v>
+        <v>0.08945897411075315</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -6836,19 +6836,19 @@
         <v>94675</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79687</v>
+        <v>78150</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115252</v>
+        <v>116637</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06791331381110816</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05716168179286594</v>
+        <v>0.05605952281853058</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08267347657272263</v>
+        <v>0.08366734947029507</v>
       </c>
     </row>
     <row r="8">
@@ -6865,19 +6865,19 @@
         <v>12339</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7364</v>
+        <v>7021</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19435</v>
+        <v>19519</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02137854340270984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01275903748475606</v>
+        <v>0.01216477129451895</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0336717328628154</v>
+        <v>0.03381824348802113</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -6886,19 +6886,19 @@
         <v>14577</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9318</v>
+        <v>9588</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21271</v>
+        <v>22228</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01784441918743564</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01140708113706116</v>
+        <v>0.01173753333631739</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0260397823077478</v>
+        <v>0.02721071758525394</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -6907,19 +6907,19 @@
         <v>26916</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19402</v>
+        <v>19324</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36999</v>
+        <v>37302</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01930765108425289</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01391727107564601</v>
+        <v>0.01386163943407505</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02654073023523955</v>
+        <v>0.02675800653062167</v>
       </c>
     </row>
     <row r="9">
@@ -7011,19 +7011,19 @@
         <v>1249732</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1198506</v>
+        <v>1196453</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1303211</v>
+        <v>1303141</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5610167929073768</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5380213123030433</v>
+        <v>0.5370993811760758</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5850239672561981</v>
+        <v>0.5849926523310499</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1588</v>
@@ -7032,19 +7032,19 @@
         <v>1230086</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1185484</v>
+        <v>1190856</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1271941</v>
+        <v>1274733</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5668193280498647</v>
+        <v>0.5668193280498648</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5462670391200962</v>
+        <v>0.5487425996996224</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.586105910543397</v>
+        <v>0.5873928178894166</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2619</v>
@@ -7053,19 +7053,19 @@
         <v>2479817</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2406806</v>
+        <v>2409439</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2547167</v>
+        <v>2546988</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.563880150917913</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5472781807821434</v>
+        <v>0.5478770599820808</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5791946992132082</v>
+        <v>0.5791538990276439</v>
       </c>
     </row>
     <row r="11">
@@ -7082,19 +7082,19 @@
         <v>760140</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>709140</v>
+        <v>713012</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>808976</v>
+        <v>810764</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3412342791344223</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3183398117068832</v>
+        <v>0.3200781120585417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3631571832525045</v>
+        <v>0.3639597383945775</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1023</v>
@@ -7103,19 +7103,19 @@
         <v>716166</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>676742</v>
+        <v>678248</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>757353</v>
+        <v>758363</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3300070226296506</v>
+        <v>0.3300070226296507</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3118402256524638</v>
+        <v>0.3125345123476678</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3489855045151476</v>
+        <v>0.3494509621350019</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1762</v>
@@ -7124,19 +7124,19 @@
         <v>1476306</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1414776</v>
+        <v>1413749</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1542244</v>
+        <v>1542868</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3356940016419369</v>
+        <v>0.3356940016419368</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3217027466773412</v>
+        <v>0.3214692177054502</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3506874863791997</v>
+        <v>0.3508293232054541</v>
       </c>
     </row>
     <row r="12">
@@ -7153,19 +7153,19 @@
         <v>137722</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>114231</v>
+        <v>113795</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>161941</v>
+        <v>164939</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06182474261894502</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05127921460526535</v>
+        <v>0.05108348130312721</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07269675772440022</v>
+        <v>0.07404283926811656</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>183</v>
@@ -7174,19 +7174,19 @@
         <v>137569</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>117695</v>
+        <v>119228</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>161550</v>
+        <v>161552</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06339139346992743</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05423356750602083</v>
+        <v>0.05493981668345528</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07444147014114176</v>
+        <v>0.0744423882686488</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>318</v>
@@ -7195,19 +7195,19 @@
         <v>275291</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>245201</v>
+        <v>245306</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>316596</v>
+        <v>309838</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.06259783268280809</v>
+        <v>0.06259783268280811</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05575564182200016</v>
+        <v>0.0557795003078281</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07198994739079974</v>
+        <v>0.07045335101606275</v>
       </c>
     </row>
     <row r="13">
@@ -7224,19 +7224,19 @@
         <v>65773</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51432</v>
+        <v>51359</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84286</v>
+        <v>82832</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02952610878750847</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02308854358027187</v>
+        <v>0.02305553314925249</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03783696393241496</v>
+        <v>0.03718428027022212</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -7245,19 +7245,19 @@
         <v>67690</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54932</v>
+        <v>55857</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82511</v>
+        <v>82049</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.031191155339681</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02531238003427306</v>
+        <v>0.02573890485801453</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03802094483232794</v>
+        <v>0.03780769918433758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>169</v>
@@ -7266,19 +7266,19 @@
         <v>133463</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>114167</v>
+        <v>113105</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154979</v>
+        <v>154983</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03034775385574232</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02596018657989489</v>
+        <v>0.02571869222410384</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03524038718688682</v>
+        <v>0.03524118039155356</v>
       </c>
     </row>
     <row r="14">
@@ -7295,19 +7295,19 @@
         <v>14252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7953</v>
+        <v>8218</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23010</v>
+        <v>23430</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006398076551747216</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003570228615436564</v>
+        <v>0.003689197320867164</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0103291902939564</v>
+        <v>0.01051776705849685</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -7316,19 +7316,19 @@
         <v>18644</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11987</v>
+        <v>12215</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29239</v>
+        <v>30164</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00859110051087621</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005523457164035148</v>
+        <v>0.005628428748339141</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01347302243259095</v>
+        <v>0.01389964949627386</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>41</v>
@@ -7337,19 +7337,19 @@
         <v>32896</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23646</v>
+        <v>22567</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44682</v>
+        <v>45411</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.007480260901599744</v>
+        <v>0.007480260901599743</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005376853441527178</v>
+        <v>0.005131347698483131</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01016015988154808</v>
+        <v>0.01032597367733625</v>
       </c>
     </row>
     <row r="15">
@@ -7441,19 +7441,19 @@
         <v>472253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>444826</v>
+        <v>446258</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>498439</v>
+        <v>498724</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6645586785113768</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6259632547073203</v>
+        <v>0.627978798914298</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7014079029683061</v>
+        <v>0.7018100252405337</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>672</v>
@@ -7462,19 +7462,19 @@
         <v>506265</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>482319</v>
+        <v>485018</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>526431</v>
+        <v>528591</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6898263214707102</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6571982323200066</v>
+        <v>0.6608753039352806</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7173038129204874</v>
+        <v>0.7202469838019683</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1105</v>
@@ -7483,19 +7483,19 @@
         <v>978518</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>941858</v>
+        <v>943279</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1012056</v>
+        <v>1016032</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6773960736884219</v>
+        <v>0.677396073688422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6520175181366223</v>
+        <v>0.6530012111402922</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7006138648050281</v>
+        <v>0.7033660443487325</v>
       </c>
     </row>
     <row r="17">
@@ -7512,19 +7512,19 @@
         <v>185360</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>163042</v>
+        <v>162704</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>211751</v>
+        <v>211067</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2608410366396047</v>
+        <v>0.2608410366396048</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2294346470708219</v>
+        <v>0.2289586757889401</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2979784829575568</v>
+        <v>0.2970150271668717</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>272</v>
@@ -7533,19 +7533,19 @@
         <v>184264</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>165645</v>
+        <v>165321</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207250</v>
+        <v>206662</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2510745633763662</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.225704409988168</v>
+        <v>0.2252634534449103</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2823947540241439</v>
+        <v>0.2815928166585832</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>465</v>
@@ -7554,19 +7554,19 @@
         <v>369625</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>339839</v>
+        <v>341564</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>404603</v>
+        <v>402866</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2558791145098667</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2352594611610384</v>
+        <v>0.2364539860331545</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2800935843622925</v>
+        <v>0.2788908757028329</v>
       </c>
     </row>
     <row r="18">
@@ -7583,19 +7583,19 @@
         <v>35355</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24864</v>
+        <v>25196</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49912</v>
+        <v>48737</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04975136658225295</v>
+        <v>0.04975136658225294</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03498834944228293</v>
+        <v>0.03545604704941738</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07023706847470552</v>
+        <v>0.06858298169545587</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -7604,19 +7604,19 @@
         <v>29197</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20540</v>
+        <v>19925</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42969</v>
+        <v>40899</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.03978263299563483</v>
+        <v>0.03978263299563482</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02798790019274472</v>
+        <v>0.0271497124936912</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05854806491665225</v>
+        <v>0.05572852049864848</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>73</v>
@@ -7625,19 +7625,19 @@
         <v>64551</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51102</v>
+        <v>49893</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>83972</v>
+        <v>81314</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04468668474105145</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03537637098638929</v>
+        <v>0.0345392160457774</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05813087615070121</v>
+        <v>0.05629103307837308</v>
       </c>
     </row>
     <row r="19">
@@ -7654,19 +7654,19 @@
         <v>10368</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5744</v>
+        <v>5647</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19153</v>
+        <v>17608</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01458967673046053</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008082451953952165</v>
+        <v>0.007946869247011327</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0269526155588888</v>
+        <v>0.02477880911466574</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -7675,19 +7675,19 @@
         <v>10998</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6841</v>
+        <v>6382</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17633</v>
+        <v>17610</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01498534186784149</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009321261886927267</v>
+        <v>0.008695578506548446</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02402673101300748</v>
+        <v>0.02399449624161376</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -7696,19 +7696,19 @@
         <v>21366</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14921</v>
+        <v>14277</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30937</v>
+        <v>29969</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0147906970525584</v>
+        <v>0.01479069705255841</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0103291098093974</v>
+        <v>0.009883348974333184</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02141699320226816</v>
+        <v>0.02074644682264811</v>
       </c>
     </row>
     <row r="20">
@@ -7725,19 +7725,19 @@
         <v>7290</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3274</v>
+        <v>2715</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17463</v>
+        <v>16056</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01025924153630493</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004606855587360103</v>
+        <v>0.003820661383532505</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02457480577082315</v>
+        <v>0.0225937020339447</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -7746,19 +7746,19 @@
         <v>3179</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1211</v>
+        <v>1179</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6922</v>
+        <v>7108</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00433114028944701</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001649923822333458</v>
+        <v>0.001606790197803548</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.009431358360670576</v>
+        <v>0.009685489349008777</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -7767,19 +7767,19 @@
         <v>10469</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5284</v>
+        <v>5661</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19587</v>
+        <v>19690</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.00724743000810149</v>
+        <v>0.007247430008101493</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003658274771144832</v>
+        <v>0.003919172317956581</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01355968837411078</v>
+        <v>0.01363056810931605</v>
       </c>
     </row>
     <row r="21">
@@ -7871,19 +7871,19 @@
         <v>2015035</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1948638</v>
+        <v>1955906</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2076037</v>
+        <v>2080059</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5731977874888105</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5543104336976987</v>
+        <v>0.5563780318163881</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5905504999721658</v>
+        <v>0.5916946839238119</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2922</v>
@@ -7892,19 +7892,19 @@
         <v>2114757</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2063828</v>
+        <v>2058493</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2170488</v>
+        <v>2165468</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5683401810032743</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.554652849166292</v>
+        <v>0.5532190800420544</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5833176627854098</v>
+        <v>0.5819685046470567</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4731</v>
@@ -7913,19 +7913,19 @@
         <v>4129792</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4048854</v>
+        <v>4047257</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4212296</v>
+        <v>4221112</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5707000076302623</v>
+        <v>0.5707000076302621</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5595150977965635</v>
+        <v>0.5592943260620967</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5821012464510089</v>
+        <v>0.5833195565643613</v>
       </c>
     </row>
     <row r="23">
@@ -7942,19 +7942,19 @@
         <v>1103268</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1047423</v>
+        <v>1045576</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1164220</v>
+        <v>1161512</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3138362498037162</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2979504822637475</v>
+        <v>0.2974251011227618</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3311746578104854</v>
+        <v>0.3304043179093142</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1738</v>
@@ -7963,19 +7963,19 @@
         <v>1154117</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1108298</v>
+        <v>1108434</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1203582</v>
+        <v>1206085</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3101683775340314</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2978545985860374</v>
+        <v>0.2978912617297225</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3234621016049999</v>
+        <v>0.3241349201121984</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2861</v>
@@ -7984,19 +7984,19 @@
         <v>2257385</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2178673</v>
+        <v>2187535</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2327774</v>
+        <v>2339876</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3119502309369707</v>
+        <v>0.3119502309369706</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3010728597611952</v>
+        <v>0.3022976068441989</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3216772752857754</v>
+        <v>0.323349683343489</v>
       </c>
     </row>
     <row r="24">
@@ -8013,19 +8013,19 @@
         <v>251941</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>221842</v>
+        <v>218306</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>283984</v>
+        <v>283054</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07166728908712952</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06310531047593469</v>
+        <v>0.06209942642208677</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0807821149889308</v>
+        <v>0.08051770765461362</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>413</v>
@@ -8034,19 +8034,19 @@
         <v>277459</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>248958</v>
+        <v>250883</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>305879</v>
+        <v>307372</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07456706013213052</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06690731397803609</v>
+        <v>0.06742473300140596</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08220487117544586</v>
+        <v>0.08260616059501913</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>681</v>
@@ -8055,19 +8055,19 @@
         <v>529400</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>487215</v>
+        <v>486520</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>573422</v>
+        <v>570159</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.07315835052493255</v>
+        <v>0.07315835052493254</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06732867340877725</v>
+        <v>0.06723265154679953</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07924174402346963</v>
+        <v>0.07879080377740888</v>
       </c>
     </row>
     <row r="25">
@@ -8084,19 +8084,19 @@
         <v>111300</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>92316</v>
+        <v>90549</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>135894</v>
+        <v>133770</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03166050567871224</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02626028903424277</v>
+        <v>0.02575770198479149</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03865643488536098</v>
+        <v>0.03805224614608724</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>214</v>
@@ -8105,19 +8105,19 @@
         <v>138203</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>120805</v>
+        <v>119684</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>157342</v>
+        <v>158932</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03714206355615538</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.032466392313313</v>
+        <v>0.03216503639638183</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04228558750016485</v>
+        <v>0.04271299612563158</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>335</v>
@@ -8126,19 +8126,19 @@
         <v>249503</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>223227</v>
+        <v>223278</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>278325</v>
+        <v>281865</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0344791211636248</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03084796617113911</v>
+        <v>0.03085496343566331</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03846196942907687</v>
+        <v>0.03895126580108807</v>
       </c>
     </row>
     <row r="26">
@@ -8155,19 +8155,19 @@
         <v>33882</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24485</v>
+        <v>24445</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47358</v>
+        <v>47274</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.00963816794163155</v>
+        <v>0.009638167941631554</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006964943183627701</v>
+        <v>0.006953519637624432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01347152028080949</v>
+        <v>0.01344747987518498</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>54</v>
@@ -8176,19 +8176,19 @@
         <v>36399</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>27280</v>
+        <v>26762</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47031</v>
+        <v>48589</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009782317774408394</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007331484002281205</v>
+        <v>0.007192269153611542</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01263968267789109</v>
+        <v>0.01305829556582343</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>92</v>
@@ -8197,19 +8197,19 @@
         <v>70282</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>56492</v>
+        <v>56789</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>87866</v>
+        <v>87058</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.009712289744209669</v>
+        <v>0.009712289744209667</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007806717376716269</v>
+        <v>0.007847728977243494</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0121423460945287</v>
+        <v>0.01203067060106479</v>
       </c>
     </row>
     <row r="27">
